--- a/DB物理設計_baserMail.xlsx
+++ b/DB物理設計_baserMail.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuring/Documents/Projects/basercms-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="160" windowWidth="22760" windowHeight="19560" tabRatio="836" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="836" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="mail_configs" sheetId="1" r:id="rId1"/>
-    <sheet name="mail_contents" sheetId="9" r:id="rId2"/>
-    <sheet name="mail_fields" sheetId="22" r:id="rId3"/>
-    <sheet name="messages" sheetId="10" r:id="rId4"/>
+    <sheet name="更新履歴" sheetId="23" r:id="rId1"/>
+    <sheet name="mail_configs" sheetId="1" r:id="rId2"/>
+    <sheet name="mail_contents" sheetId="9" r:id="rId3"/>
+    <sheet name="mail_fields" sheetId="22" r:id="rId4"/>
+    <sheet name="messages" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">mail_configs!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">mail_contents!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">mail_fields!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">messages!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">mail_configs!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">mail_contents!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">mail_fields!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">messages!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="273">
   <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
@@ -1631,7 +1640,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>第3.0.0版　＜2013年11月24日更新＞</t>
+    <t>4.0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mail_contents 構造変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除。contents に移行。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第4.0.0版　＜2016年08月18日更新＞</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1677,6 +1698,7 @@
       <b/>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1719,7 +1741,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1744,6 +1766,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -2245,7 +2273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2479,6 +2507,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2588,6 +2667,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2912,6 +2996,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="78">
+        <v>42600</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -2919,7 +3036,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -2935,7 +3052,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2944,24 +3061,24 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="25" t="s">
         <v>158</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31"/>
@@ -2969,21 +3086,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="31"/>
@@ -2991,7 +3108,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -3004,27 +3121,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="79" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>29</v>
       </c>
@@ -3062,7 +3179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -3096,7 +3213,7 @@
       </c>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>2</v>
       </c>
@@ -3130,7 +3247,7 @@
       </c>
       <c r="L9" s="40"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -3164,7 +3281,7 @@
       </c>
       <c r="L10" s="40"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>4</v>
       </c>
@@ -3198,7 +3315,7 @@
       </c>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>5</v>
       </c>
@@ -3232,7 +3349,7 @@
       </c>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>6</v>
       </c>
@@ -3266,7 +3383,7 @@
       </c>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>7</v>
       </c>
@@ -3300,7 +3417,7 @@
       </c>
       <c r="L14" s="40"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <v>8</v>
       </c>
@@ -3334,7 +3451,7 @@
       </c>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -3367,21 +3484,24 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -3397,33 +3517,33 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="25" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31"/>
@@ -3431,21 +3551,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="31"/>
@@ -3453,7 +3573,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -3466,27 +3586,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="79" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>55</v>
       </c>
@@ -3524,7 +3644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -3556,73 +3676,73 @@
       <c r="K8" s="21"/>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="38">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="82">
+        <v>100</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="83">
+        <v>255</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
         <v>2</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="17">
-        <v>100</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="38">
-        <v>3</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="6">
-        <v>255</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" ht="37">
-      <c r="A11" s="38">
-        <v>4</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="57" t="s">
@@ -3652,9 +3772,9 @@
       <c r="K11" s="9"/>
       <c r="L11" s="41"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="57" t="s">
@@ -3682,9 +3802,9 @@
       <c r="K12" s="9"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="57" t="s">
@@ -3712,9 +3832,9 @@
       <c r="K13" s="9"/>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="1:12" ht="25">
+    <row r="14" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="5" t="s">
@@ -3744,9 +3864,9 @@
       <c r="K14" s="9"/>
       <c r="L14" s="41"/>
     </row>
-    <row r="15" spans="1:12" ht="25">
+    <row r="15" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="71" t="s">
@@ -3776,9 +3896,9 @@
       <c r="K15" s="9"/>
       <c r="L15" s="41"/>
     </row>
-    <row r="16" spans="1:12" ht="25">
+    <row r="16" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="71" t="s">
@@ -3808,41 +3928,41 @@
       <c r="K16" s="9"/>
       <c r="L16" s="41"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="38">
-        <v>10</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="79"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="83">
         <v>20</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="G17" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="86"/>
+      <c r="L17" s="87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="5" t="s">
@@ -3872,9 +3992,9 @@
       <c r="K18" s="9"/>
       <c r="L18" s="41"/>
     </row>
-    <row r="19" spans="1:12" ht="25">
+    <row r="19" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="5" t="s">
@@ -3904,9 +4024,9 @@
       <c r="K19" s="9"/>
       <c r="L19" s="41"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="38">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="5" t="s">
@@ -3936,41 +4056,39 @@
       <c r="K20" s="9"/>
       <c r="L20" s="41"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="38">
-        <v>14</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="5" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="79"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="83">
         <v>1</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="83">
+        <v>0</v>
+      </c>
+      <c r="I21" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="92">
         <v>1</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="41"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="38">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="61"/>
       <c r="C22" s="60" t="s">
@@ -4000,9 +4118,9 @@
       <c r="K22" s="9"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="57" t="s">
@@ -4032,9 +4150,9 @@
       <c r="K23" s="9"/>
       <c r="L23" s="41"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="57" t="s">
@@ -4064,41 +4182,41 @@
       <c r="K24" s="9"/>
       <c r="L24" s="41"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="38">
-        <v>18</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="57" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="79"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="94">
         <v>1</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="J25" s="72">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="41"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="J25" s="92">
+        <v>0</v>
+      </c>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="38">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="57" t="s">
@@ -4126,9 +4244,9 @@
       <c r="K26" s="9"/>
       <c r="L26" s="41"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="57" t="s">
@@ -4156,9 +4274,9 @@
       <c r="K27" s="9"/>
       <c r="L27" s="41"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="38">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
@@ -4188,9 +4306,9 @@
       <c r="K28" s="9"/>
       <c r="L28" s="41"/>
     </row>
-    <row r="29" spans="1:12" ht="14" thickBot="1">
+    <row r="29" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="44" t="s">
@@ -4239,13 +4357,13 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
@@ -4253,7 +4371,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -4269,7 +4387,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -4278,24 +4396,24 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="25" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31"/>
@@ -4303,21 +4421,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="31"/>
@@ -4325,7 +4443,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -4338,27 +4456,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="79" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>94</v>
       </c>
@@ -4396,7 +4514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -4430,7 +4548,7 @@
       </c>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>2</v>
       </c>
@@ -4464,7 +4582,7 @@
       </c>
       <c r="L9" s="40"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -4498,7 +4616,7 @@
       </c>
       <c r="L10" s="40"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>4</v>
       </c>
@@ -4532,7 +4650,7 @@
       </c>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>5</v>
       </c>
@@ -4566,7 +4684,7 @@
       </c>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:12" ht="109">
+    <row r="13" spans="1:12" ht="117" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>6</v>
       </c>
@@ -4600,7 +4718,7 @@
       </c>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>7</v>
       </c>
@@ -4634,7 +4752,7 @@
       </c>
       <c r="L14" s="40"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="38">
         <v>8</v>
       </c>
@@ -4668,7 +4786,7 @@
       </c>
       <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="38">
         <v>9</v>
       </c>
@@ -4702,7 +4820,7 @@
       </c>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="38">
         <v>10</v>
       </c>
@@ -4736,7 +4854,7 @@
       </c>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="38">
         <v>11</v>
       </c>
@@ -4770,7 +4888,7 @@
       </c>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="38">
         <v>12</v>
       </c>
@@ -4804,7 +4922,7 @@
       </c>
       <c r="L19" s="40"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="38">
         <v>13</v>
       </c>
@@ -4838,7 +4956,7 @@
       </c>
       <c r="L20" s="41"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="38">
         <v>14</v>
       </c>
@@ -4872,7 +4990,7 @@
       </c>
       <c r="L21" s="40"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="38">
         <v>15</v>
       </c>
@@ -4906,7 +5024,7 @@
       </c>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="38">
         <v>16</v>
       </c>
@@ -4940,7 +5058,7 @@
       </c>
       <c r="L23" s="40"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="38">
         <v>17</v>
       </c>
@@ -4972,7 +5090,7 @@
       </c>
       <c r="L24" s="40"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="38">
         <v>18</v>
       </c>
@@ -5006,7 +5124,7 @@
       </c>
       <c r="L25" s="41"/>
     </row>
-    <row r="26" spans="1:12" ht="25">
+    <row r="26" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A26" s="38">
         <v>19</v>
       </c>
@@ -5040,7 +5158,7 @@
       </c>
       <c r="L26" s="40"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="38">
         <v>20</v>
       </c>
@@ -5074,7 +5192,7 @@
       </c>
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="38">
         <v>21</v>
       </c>
@@ -5108,7 +5226,7 @@
       </c>
       <c r="L28" s="40"/>
     </row>
-    <row r="29" spans="1:12" ht="73">
+    <row r="29" spans="1:12" ht="65" x14ac:dyDescent="0.15">
       <c r="A29" s="38">
         <v>22</v>
       </c>
@@ -5142,7 +5260,7 @@
       </c>
       <c r="L29" s="40"/>
     </row>
-    <row r="30" spans="1:12" ht="85">
+    <row r="30" spans="1:12" ht="91" x14ac:dyDescent="0.15">
       <c r="A30" s="38">
         <v>23</v>
       </c>
@@ -5176,7 +5294,7 @@
       </c>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="38">
         <v>24</v>
       </c>
@@ -5210,7 +5328,7 @@
       </c>
       <c r="L31" s="41"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="38">
         <v>25</v>
       </c>
@@ -5240,7 +5358,7 @@
       </c>
       <c r="L32" s="41"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="38">
         <v>26</v>
       </c>
@@ -5274,7 +5392,7 @@
       </c>
       <c r="L33" s="41"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="38">
         <v>27</v>
       </c>
@@ -5308,7 +5426,7 @@
       </c>
       <c r="L34" s="41"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="38">
         <v>28</v>
       </c>
@@ -5342,7 +5460,7 @@
       </c>
       <c r="L35" s="41"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="64">
         <v>29</v>
       </c>
@@ -5376,7 +5494,7 @@
       </c>
       <c r="L36" s="41"/>
     </row>
-    <row r="37" spans="1:12" ht="14" thickBot="1">
+    <row r="37" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="42">
         <v>30</v>
       </c>
@@ -5429,13 +5547,13 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -5443,7 +5561,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -5459,7 +5577,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -5468,24 +5586,24 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="25" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31"/>
@@ -5493,21 +5611,21 @@
       <c r="K3" s="4"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="31"/>
@@ -5515,7 +5633,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1">
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -5528,27 +5646,27 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A6" s="79" t="s">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>150</v>
       </c>
@@ -5586,7 +5704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -5616,7 +5734,7 @@
       <c r="K8" s="21"/>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>2</v>
       </c>
@@ -5646,7 +5764,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="40"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42">
         <v>3</v>
       </c>
@@ -5676,46 +5794,46 @@
       <c r="K10" s="56"/>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I11" s="54"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I12" s="54"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I14" s="54"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I15" s="54"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I16" s="54"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="54"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="54"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I22" s="54"/>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I23" s="54"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I24" s="54"/>
     </row>
   </sheetData>
@@ -5737,7 +5855,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
